--- a/ArticleManage/main_working_folder/output_folders/Data 112 Characteristics of Pore Structures/Data112_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 112 Characteristics of Pore Structures/Data112_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="500" sheetId="1" r:id="rId1"/>
-    <sheet name="600" sheetId="2" r:id="rId4"/>
-    <sheet name="700" sheetId="3" r:id="rId5"/>
-    <sheet name="800" sheetId="4" r:id="rId6"/>
-    <sheet name="900" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 500  0-1-0-1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 600  0-1-0-1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 700  0-1-0-1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 800  0-1-0-1000 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 900  0-1-0-1000 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -98,7 +98,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 500</a:t>
+              <a:t>Izoterma adsorpcji probki 500 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -157,12 +157,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 500  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 500  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -175,6 +175,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -244,6 +246,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -408,7 +412,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600</a:t>
+              <a:t>Izoterma adsorpcji probki 600 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -467,12 +471,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 600  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 600  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -485,6 +489,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -554,6 +560,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -718,7 +726,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700</a:t>
+              <a:t>Izoterma adsorpcji probki 700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -777,12 +785,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 700  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 700  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -795,6 +803,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -864,6 +874,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1028,7 +1040,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800</a:t>
+              <a:t>Izoterma adsorpcji probki 800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1087,12 +1099,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 800  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 800  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1105,6 +1117,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1174,6 +1188,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1338,7 +1354,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 900</a:t>
+              <a:t>Izoterma adsorpcji probki 900 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1397,12 +1413,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 900  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 900  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1415,6 +1431,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1484,6 +1502,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 112 Characteristics of Pore Structures/Data112_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 112 Characteristics of Pore Structures/Data112_all_graphs_excel.xlsx
@@ -4912,7 +4912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4933,413 +4933,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0123</v>
+        <v>0.9921</v>
       </c>
       <c r="B3" s="0">
-        <v>124.6939</v>
+        <v>150.4732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0319</v>
+        <v>0.9517</v>
       </c>
       <c r="B4" s="0">
-        <v>128.938</v>
+        <v>146.8777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0514</v>
+        <v>0.9025</v>
       </c>
       <c r="B5" s="0">
-        <v>132.9823</v>
+        <v>146.968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.071</v>
+        <v>0.8506</v>
       </c>
       <c r="B6" s="0">
-        <v>133.9978</v>
+        <v>147.0631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0906</v>
+        <v>0.8032</v>
       </c>
       <c r="B7" s="0">
-        <v>136.9055</v>
+        <v>147.1502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1102</v>
+        <v>0.7513</v>
       </c>
       <c r="B8" s="0">
-        <v>138.2894</v>
+        <v>147.2453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1298</v>
+        <v>0.7021</v>
       </c>
       <c r="B9" s="0">
-        <v>138.2854</v>
+        <v>147.3356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1494</v>
+        <v>0.6485</v>
       </c>
       <c r="B10" s="0">
-        <v>139.137</v>
+        <v>141.9293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.169</v>
+        <v>0.6037</v>
       </c>
       <c r="B11" s="0">
-        <v>136.6152</v>
+        <v>145.6813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1886</v>
+        <v>0.5527</v>
       </c>
       <c r="B12" s="0">
-        <v>139.696</v>
+        <v>145.7748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2082</v>
+        <v>0.5018</v>
       </c>
       <c r="B13" s="0">
-        <v>141.1412</v>
+        <v>145.8683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2278</v>
+        <v>0.4508</v>
       </c>
       <c r="B14" s="0">
-        <v>139.1446</v>
+        <v>145.9619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2474</v>
+        <v>0.3998</v>
       </c>
       <c r="B15" s="0">
-        <v>141.5435</v>
+        <v>147.8902</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.267</v>
+        <v>0.3497</v>
       </c>
       <c r="B16" s="0">
-        <v>142.3493</v>
+        <v>144.3124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2866</v>
+        <v>0.2979</v>
       </c>
       <c r="B17" s="0">
-        <v>142.0203</v>
+        <v>140.7378</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3062</v>
+        <v>0.2478</v>
       </c>
       <c r="B18" s="0">
-        <v>141.7446</v>
+        <v>140.8297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3258</v>
+        <v>0.196</v>
       </c>
       <c r="B19" s="0">
-        <v>141.3623</v>
+        <v>139.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3454</v>
+        <v>0.1441</v>
       </c>
       <c r="B20" s="0">
-        <v>142.725</v>
+        <v>139.1851</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.365</v>
+        <v>0.0958</v>
       </c>
       <c r="B21" s="0">
-        <v>143.8478</v>
+        <v>137.4389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3846</v>
+        <v>0.0492</v>
       </c>
       <c r="B22" s="0">
-        <v>143.6201</v>
+        <v>132.0198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4042</v>
+        <v>0.0369</v>
       </c>
       <c r="B23" s="0">
-        <v>146.248</v>
+        <v>130.2075</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4238</v>
+        <v>0.0281</v>
       </c>
       <c r="B24" s="0">
-        <v>143.7399</v>
+        <v>130.2236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4434</v>
+        <v>0.0176</v>
       </c>
       <c r="B25" s="0">
-        <v>144.695</v>
+        <v>126.5733</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.463</v>
+        <v>0.0079</v>
       </c>
       <c r="B26" s="0">
-        <v>145.7527</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.4826</v>
-      </c>
-      <c r="B27" s="0">
-        <v>144.1915</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5022</v>
-      </c>
-      <c r="B28" s="0">
-        <v>146.7182</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5218</v>
-      </c>
-      <c r="B29" s="0">
-        <v>145.5421</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5413</v>
-      </c>
-      <c r="B30" s="0">
-        <v>145.9217</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5609</v>
-      </c>
-      <c r="B31" s="0">
-        <v>146.3653</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5805</v>
-      </c>
-      <c r="B32" s="0">
-        <v>144.8908</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6001</v>
-      </c>
-      <c r="B33" s="0">
-        <v>146.7116</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6197</v>
-      </c>
-      <c r="B34" s="0">
-        <v>147.0033</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6393</v>
-      </c>
-      <c r="B35" s="0">
-        <v>146.1948</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6589</v>
-      </c>
-      <c r="B36" s="0">
-        <v>146.8994</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6785</v>
-      </c>
-      <c r="B37" s="0">
-        <v>145.8299</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6981</v>
-      </c>
-      <c r="B38" s="0">
-        <v>146.38</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7177</v>
-      </c>
-      <c r="B39" s="0">
-        <v>147.1166</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7373</v>
-      </c>
-      <c r="B40" s="0">
-        <v>146.2015</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7569</v>
-      </c>
-      <c r="B41" s="0">
-        <v>146.8902</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7765</v>
-      </c>
-      <c r="B42" s="0">
-        <v>145.73</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7961</v>
-      </c>
-      <c r="B43" s="0">
-        <v>146.1549</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8157</v>
-      </c>
-      <c r="B44" s="0">
-        <v>147.5895</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8353</v>
-      </c>
-      <c r="B45" s="0">
-        <v>147.4283</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8549</v>
-      </c>
-      <c r="B46" s="0">
-        <v>149.012</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8745</v>
-      </c>
-      <c r="B47" s="0">
-        <v>148.0277</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8941</v>
-      </c>
-      <c r="B48" s="0">
-        <v>148.3807</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9137</v>
-      </c>
-      <c r="B49" s="0">
-        <v>148.707</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9333</v>
-      </c>
-      <c r="B50" s="0">
-        <v>148.719</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9529</v>
-      </c>
-      <c r="B51" s="0">
-        <v>147.1326</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9725</v>
-      </c>
-      <c r="B52" s="0">
-        <v>149.9258</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9921</v>
-      </c>
-      <c r="B53" s="0">
-        <v>153.0199</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>122.9213</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5348,7 +5132,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5369,341 +5153,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0116</v>
+        <v>0.9895</v>
       </c>
       <c r="B3" s="0">
-        <v>182.6743</v>
+        <v>209.1937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0349</v>
+        <v>0.9499</v>
       </c>
       <c r="B4" s="0">
-        <v>184.1773</v>
+        <v>205.5965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0582</v>
+        <v>0.9025</v>
       </c>
       <c r="B5" s="0">
-        <v>185.8703</v>
+        <v>203.8487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0815</v>
+        <v>0.8497</v>
       </c>
       <c r="B6" s="0">
-        <v>189.2163</v>
+        <v>202.1106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1047</v>
+        <v>0.8023</v>
       </c>
       <c r="B7" s="0">
-        <v>189.712</v>
+        <v>202.1976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.128</v>
+        <v>0.7513</v>
       </c>
       <c r="B8" s="0">
-        <v>192.1324</v>
+        <v>200.4563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.15</v>
+        <v>0.7021</v>
       </c>
       <c r="B9" s="0">
-        <v>193.9856</v>
+        <v>202.3815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1968</v>
+        <v>0.6529</v>
       </c>
       <c r="B10" s="0">
-        <v>194.35</v>
+        <v>202.4717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2199</v>
+        <v>0.6028</v>
       </c>
       <c r="B11" s="0">
-        <v>193.2201</v>
+        <v>200.7288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2431</v>
+        <v>0.551</v>
       </c>
       <c r="B12" s="0">
-        <v>195.7438</v>
+        <v>200.8239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2664</v>
+        <v>0.5018</v>
       </c>
       <c r="B13" s="0">
-        <v>195.1717</v>
+        <v>200.9142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2897</v>
+        <v>0.4508</v>
       </c>
       <c r="B14" s="0">
-        <v>193.6977</v>
+        <v>199.1729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3129</v>
+        <v>0.4007</v>
       </c>
       <c r="B15" s="0">
-        <v>196.6543</v>
+        <v>199.2648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3362</v>
+        <v>0.3489</v>
       </c>
       <c r="B16" s="0">
-        <v>197.0401</v>
+        <v>195.6902</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3595</v>
+        <v>0.3005</v>
       </c>
       <c r="B17" s="0">
-        <v>198.2761</v>
+        <v>197.6137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3827</v>
+        <v>0.2487</v>
       </c>
       <c r="B18" s="0">
-        <v>197.1387</v>
+        <v>195.874</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.406</v>
+        <v>0.1977</v>
       </c>
       <c r="B19" s="0">
-        <v>198.107</v>
+        <v>194.1326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4293</v>
+        <v>0.1467</v>
       </c>
       <c r="B20" s="0">
-        <v>196.9635</v>
+        <v>196.061</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4526</v>
+        <v>0.0949</v>
       </c>
       <c r="B21" s="0">
-        <v>198.1547</v>
+        <v>192.4864</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4758</v>
+        <v>0.0501</v>
       </c>
       <c r="B22" s="0">
-        <v>197.3492</v>
+        <v>187.0641</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4991</v>
+        <v>0.0395</v>
       </c>
       <c r="B23" s="0">
-        <v>200.2901</v>
+        <v>185.2485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5224</v>
+        <v>0.0272</v>
       </c>
       <c r="B24" s="0">
-        <v>199.6418</v>
+        <v>183.4363</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5456</v>
+        <v>0.0176</v>
       </c>
       <c r="B25" s="0">
-        <v>199.6978</v>
+        <v>179.7843</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5689</v>
+        <v>0.0088</v>
       </c>
       <c r="B26" s="0">
-        <v>199.8345</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5922</v>
-      </c>
-      <c r="B27" s="0">
-        <v>198.6913</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6154</v>
-      </c>
-      <c r="B28" s="0">
-        <v>200.1664</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6387</v>
-      </c>
-      <c r="B29" s="0">
-        <v>201.1556</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.662</v>
-      </c>
-      <c r="B30" s="0">
-        <v>199.7557</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6853</v>
-      </c>
-      <c r="B31" s="0">
-        <v>200.2043</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7085</v>
-      </c>
-      <c r="B32" s="0">
-        <v>202.535</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7318</v>
-      </c>
-      <c r="B33" s="0">
-        <v>198.9389</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7551</v>
-      </c>
-      <c r="B34" s="0">
-        <v>203.4501</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7783</v>
-      </c>
-      <c r="B35" s="0">
-        <v>198.3421</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8016</v>
-      </c>
-      <c r="B36" s="0">
-        <v>203.0283</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8249</v>
-      </c>
-      <c r="B37" s="0">
-        <v>198.3913</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8481</v>
-      </c>
-      <c r="B38" s="0">
-        <v>201.6417</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8714</v>
-      </c>
-      <c r="B39" s="0">
-        <v>200.4594</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8947</v>
-      </c>
-      <c r="B40" s="0">
-        <v>201.3028</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.918</v>
-      </c>
-      <c r="B41" s="0">
-        <v>202.236</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9412</v>
-      </c>
-      <c r="B42" s="0">
-        <v>203.4047</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9643</v>
-      </c>
-      <c r="B43" s="0">
-        <v>205.655</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9774</v>
-      </c>
-      <c r="B44" s="0">
-        <v>206.0191</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>174.2958</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5712,7 +5352,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5733,413 +5373,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0106</v>
+        <v>0.9886</v>
       </c>
       <c r="B3" s="0">
-        <v>249.2478</v>
+        <v>348.6448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0319</v>
+        <v>0.9543</v>
       </c>
       <c r="B4" s="0">
-        <v>276.8261</v>
+        <v>345.038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0514</v>
+        <v>0.9025</v>
       </c>
       <c r="B5" s="0">
-        <v>285.4959</v>
+        <v>341.4634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.071</v>
+        <v>0.8541</v>
       </c>
       <c r="B6" s="0">
-        <v>291.0364</v>
+        <v>343.3869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0906</v>
+        <v>0.8014</v>
       </c>
       <c r="B7" s="0">
-        <v>301.9959</v>
+        <v>341.6488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1102</v>
+        <v>0.7513</v>
       </c>
       <c r="B8" s="0">
-        <v>303.0748</v>
+        <v>339.9058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1298</v>
+        <v>0.7021</v>
       </c>
       <c r="B9" s="0">
-        <v>306.9122</v>
+        <v>341.831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1494</v>
+        <v>0.652</v>
       </c>
       <c r="B10" s="0">
-        <v>311.7512</v>
+        <v>340.088</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.169</v>
+        <v>0.6011</v>
       </c>
       <c r="B11" s="0">
-        <v>312.1415</v>
+        <v>340.1816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1886</v>
+        <v>0.551</v>
       </c>
       <c r="B12" s="0">
-        <v>317.0871</v>
+        <v>338.4386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2082</v>
+        <v>0.5</v>
       </c>
       <c r="B13" s="0">
-        <v>318.6734</v>
+        <v>336.6972</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2278</v>
+        <v>0.4473</v>
       </c>
       <c r="B14" s="0">
-        <v>318.9758</v>
+        <v>336.794</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2474</v>
+        <v>0.3963</v>
       </c>
       <c r="B15" s="0">
-        <v>323.8894</v>
+        <v>335.0526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.267</v>
+        <v>0.3445</v>
       </c>
       <c r="B16" s="0">
-        <v>321.8449</v>
+        <v>331.478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2866</v>
+        <v>0.2926</v>
       </c>
       <c r="B17" s="0">
-        <v>325.0376</v>
+        <v>327.9035</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3062</v>
+        <v>0.2434</v>
       </c>
       <c r="B18" s="0">
-        <v>325.902</v>
+        <v>324.324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3258</v>
+        <v>0.2004</v>
       </c>
       <c r="B19" s="0">
-        <v>326.905</v>
+        <v>318.8984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3454</v>
+        <v>0.1476</v>
       </c>
       <c r="B20" s="0">
-        <v>328.2596</v>
+        <v>311.6557</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.365</v>
+        <v>0.1002</v>
       </c>
       <c r="B21" s="0">
-        <v>329.0974</v>
+        <v>304.4033</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3846</v>
+        <v>0.0466</v>
       </c>
       <c r="B22" s="0">
-        <v>330.8798</v>
+        <v>286.1531</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4042</v>
+        <v>0.0343</v>
       </c>
       <c r="B23" s="0">
-        <v>331.3538</v>
+        <v>278.8362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4238</v>
+        <v>0.0123</v>
       </c>
       <c r="B24" s="0">
-        <v>329.7088</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4434</v>
-      </c>
-      <c r="B25" s="0">
-        <v>333.0934</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.463</v>
-      </c>
-      <c r="B26" s="0">
-        <v>333.5529</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.4826</v>
-      </c>
-      <c r="B27" s="0">
-        <v>333.6768</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5022</v>
-      </c>
-      <c r="B28" s="0">
-        <v>334.1789</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5218</v>
-      </c>
-      <c r="B29" s="0">
-        <v>335.6028</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5413</v>
-      </c>
-      <c r="B30" s="0">
-        <v>335.6734</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5609</v>
-      </c>
-      <c r="B31" s="0">
-        <v>335.9038</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5805</v>
-      </c>
-      <c r="B32" s="0">
-        <v>336.9335</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6001</v>
-      </c>
-      <c r="B33" s="0">
-        <v>335.1127</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6197</v>
-      </c>
-      <c r="B34" s="0">
-        <v>336.9681</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6393</v>
-      </c>
-      <c r="B35" s="0">
-        <v>337.1186</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6589</v>
-      </c>
-      <c r="B36" s="0">
-        <v>338.3081</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6785</v>
-      </c>
-      <c r="B37" s="0">
-        <v>336.434</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6981</v>
-      </c>
-      <c r="B38" s="0">
-        <v>336.1849</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7177</v>
-      </c>
-      <c r="B39" s="0">
-        <v>338.8396</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7373</v>
-      </c>
-      <c r="B40" s="0">
-        <v>337.1786</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7569</v>
-      </c>
-      <c r="B41" s="0">
-        <v>337.4943</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7765</v>
-      </c>
-      <c r="B42" s="0">
-        <v>337.5329</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7961</v>
-      </c>
-      <c r="B43" s="0">
-        <v>339.8465</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8157</v>
-      </c>
-      <c r="B44" s="0">
-        <v>340.5911</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8353</v>
-      </c>
-      <c r="B45" s="0">
-        <v>339.423</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8549</v>
-      </c>
-      <c r="B46" s="0">
-        <v>340.6364</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8745</v>
-      </c>
-      <c r="B47" s="0">
-        <v>340.0703</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8941</v>
-      </c>
-      <c r="B48" s="0">
-        <v>340.5006</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9137</v>
-      </c>
-      <c r="B49" s="0">
-        <v>341.8339</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9333</v>
-      </c>
-      <c r="B50" s="0">
-        <v>342.36</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9529</v>
-      </c>
-      <c r="B51" s="0">
-        <v>345.4675</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9728</v>
-      </c>
-      <c r="B52" s="0">
-        <v>347.706</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9914</v>
-      </c>
-      <c r="B53" s="0">
-        <v>348.8879</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>262.3627</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6148,7 +5556,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6169,421 +5577,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0056</v>
+        <v>0.9851</v>
       </c>
       <c r="B3" s="0">
-        <v>401.1265</v>
+        <v>983.5136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0136</v>
+        <v>0.9455</v>
       </c>
       <c r="B4" s="0">
-        <v>455.1412</v>
+        <v>965.2376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0309</v>
+        <v>0.8972</v>
       </c>
       <c r="B5" s="0">
-        <v>488.2066</v>
+        <v>954.3171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0497</v>
+        <v>0.8453</v>
       </c>
       <c r="B6" s="0">
-        <v>519.6838</v>
+        <v>945.2379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0698</v>
+        <v>0.7953</v>
       </c>
       <c r="B7" s="0">
-        <v>549.0935</v>
+        <v>934.3206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0894</v>
+        <v>0.746</v>
       </c>
       <c r="B8" s="0">
-        <v>579.2604</v>
+        <v>923.4018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.109</v>
+        <v>0.6977</v>
       </c>
       <c r="B9" s="0">
-        <v>596.269</v>
+        <v>903.3069</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1286</v>
+        <v>0.6459</v>
       </c>
       <c r="B10" s="0">
-        <v>618.8262</v>
+        <v>886.8883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1482</v>
+        <v>0.5958</v>
       </c>
       <c r="B11" s="0">
-        <v>634.9858</v>
+        <v>868.6316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1678</v>
+        <v>0.5457</v>
       </c>
       <c r="B12" s="0">
-        <v>650.7291</v>
+        <v>852.2097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1874</v>
+        <v>0.4956</v>
       </c>
       <c r="B13" s="0">
-        <v>669.0803</v>
+        <v>832.1182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.206</v>
+        <v>0.4473</v>
       </c>
       <c r="B14" s="0">
-        <v>676.1944</v>
+        <v>812.0233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2266</v>
+        <v>0.3963</v>
       </c>
       <c r="B15" s="0">
-        <v>694.4961</v>
+        <v>791.9334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2462</v>
+        <v>0.3436</v>
       </c>
       <c r="B16" s="0">
-        <v>708.8705</v>
+        <v>764.5072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2658</v>
+        <v>0.2953</v>
       </c>
       <c r="B17" s="0">
-        <v>718.0799</v>
+        <v>738.9078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2854</v>
+        <v>0.2496</v>
       </c>
       <c r="B18" s="0">
-        <v>731.8218</v>
+        <v>711.4687</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.305</v>
+        <v>0.145</v>
       </c>
       <c r="B19" s="0">
-        <v>740.2651</v>
+        <v>636.4312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3246</v>
+        <v>0.0984</v>
       </c>
       <c r="B20" s="0">
-        <v>751.7507</v>
+        <v>590.6451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3442</v>
+        <v>0.0457</v>
       </c>
       <c r="B21" s="0">
-        <v>762.786</v>
+        <v>519.1822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3638</v>
+        <v>0.0334</v>
       </c>
       <c r="B22" s="0">
-        <v>772.0045</v>
+        <v>500.8562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3834</v>
+        <v>0.0237</v>
       </c>
       <c r="B23" s="0">
-        <v>784.5157</v>
+        <v>484.3601</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4024</v>
+        <v>0.0149</v>
       </c>
       <c r="B24" s="0">
-        <v>792.034</v>
+        <v>460.523</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4225</v>
+        <v>0.0079</v>
       </c>
       <c r="B25" s="0">
-        <v>806.7462</v>
+        <v>440.3525</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4421</v>
+        <v>0.0044</v>
       </c>
       <c r="B26" s="0">
-        <v>811.0446</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.4617</v>
-      </c>
-      <c r="B27" s="0">
-        <v>815.7476</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.4813</v>
-      </c>
-      <c r="B28" s="0">
-        <v>824.5719</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5009</v>
-      </c>
-      <c r="B29" s="0">
-        <v>831.947</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5205</v>
-      </c>
-      <c r="B30" s="0">
-        <v>837.6491</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5401</v>
-      </c>
-      <c r="B31" s="0">
-        <v>847.3232</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5597</v>
-      </c>
-      <c r="B32" s="0">
-        <v>853.9204</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.5793</v>
-      </c>
-      <c r="B33" s="0">
-        <v>861.6765</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.5989</v>
-      </c>
-      <c r="B34" s="0">
-        <v>867.5561</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6185</v>
-      </c>
-      <c r="B35" s="0">
-        <v>873.9119</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6381</v>
-      </c>
-      <c r="B36" s="0">
-        <v>882.2034</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6577</v>
-      </c>
-      <c r="B37" s="0">
-        <v>888.465</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6773</v>
-      </c>
-      <c r="B38" s="0">
-        <v>894.5827</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6969</v>
-      </c>
-      <c r="B39" s="0">
-        <v>904.8508</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7165</v>
-      </c>
-      <c r="B40" s="0">
-        <v>909.7751</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7361</v>
-      </c>
-      <c r="B41" s="0">
-        <v>919.4412</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7557</v>
-      </c>
-      <c r="B42" s="0">
-        <v>924.1843</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7753</v>
-      </c>
-      <c r="B43" s="0">
-        <v>927.8352</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7951</v>
-      </c>
-      <c r="B44" s="0">
-        <v>933.0083</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8145</v>
-      </c>
-      <c r="B45" s="0">
-        <v>936.0481</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8341</v>
-      </c>
-      <c r="B46" s="0">
-        <v>940.9751</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8537</v>
-      </c>
-      <c r="B47" s="0">
-        <v>946.4614</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8733</v>
-      </c>
-      <c r="B48" s="0">
-        <v>953.8685</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8929</v>
-      </c>
-      <c r="B49" s="0">
-        <v>953.2724</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9124</v>
-      </c>
-      <c r="B50" s="0">
-        <v>962.7398</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.932</v>
-      </c>
-      <c r="B51" s="0">
-        <v>966.0094</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9516</v>
-      </c>
-      <c r="B52" s="0">
-        <v>971.13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9712</v>
-      </c>
-      <c r="B53" s="0">
-        <v>978.1489</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9914</v>
-      </c>
-      <c r="B54" s="0">
-        <v>982.0731</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>416.5057</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6592,7 +5776,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6613,413 +5797,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0123</v>
+        <v>0.9824</v>
       </c>
       <c r="B3" s="0">
-        <v>311.3791</v>
+        <v>800.0322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0305</v>
+        <v>0.9438</v>
       </c>
       <c r="B4" s="0">
-        <v>344.4745</v>
+        <v>756.0665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0514</v>
+        <v>0.8963</v>
       </c>
       <c r="B5" s="0">
-        <v>374.2887</v>
+        <v>726.7958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.071</v>
+        <v>0.8462</v>
       </c>
       <c r="B6" s="0">
-        <v>394.8498</v>
+        <v>708.539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0906</v>
+        <v>0.7979</v>
       </c>
       <c r="B7" s="0">
-        <v>419.8015</v>
+        <v>690.2791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1102</v>
+        <v>0.7478</v>
       </c>
       <c r="B8" s="0">
-        <v>434.561</v>
+        <v>677.527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1298</v>
+        <v>0.6942</v>
       </c>
       <c r="B9" s="0">
-        <v>452.1113</v>
+        <v>659.2767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1494</v>
+        <v>0.6476</v>
       </c>
       <c r="B10" s="0">
-        <v>465.4983</v>
+        <v>646.5181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.169</v>
+        <v>0.5914</v>
       </c>
       <c r="B11" s="0">
-        <v>479.1325</v>
+        <v>631.9424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1886</v>
+        <v>0.5457</v>
       </c>
       <c r="B12" s="0">
-        <v>494.1582</v>
+        <v>619.1822</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2082</v>
+        <v>0.4956</v>
       </c>
       <c r="B13" s="0">
-        <v>503.979</v>
+        <v>606.4301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2278</v>
+        <v>0.4482</v>
       </c>
       <c r="B14" s="0">
-        <v>514.0546</v>
+        <v>595.508</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2474</v>
+        <v>0.3989</v>
       </c>
       <c r="B15" s="0">
-        <v>524.3649</v>
+        <v>584.5891</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.267</v>
+        <v>0.3418</v>
       </c>
       <c r="B16" s="0">
-        <v>531.9489</v>
+        <v>564.5104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2866</v>
+        <v>0.2953</v>
       </c>
       <c r="B17" s="0">
-        <v>542.7042</v>
+        <v>546.2472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3062</v>
+        <v>0.2469</v>
       </c>
       <c r="B18" s="0">
-        <v>548.7131</v>
+        <v>529.8222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3258</v>
+        <v>0.1968</v>
       </c>
       <c r="B19" s="0">
-        <v>556.5091</v>
+        <v>500.5563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3454</v>
+        <v>0.1441</v>
       </c>
       <c r="B20" s="0">
-        <v>564.1091</v>
+        <v>462.1209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.365</v>
+        <v>0.0958</v>
       </c>
       <c r="B21" s="0">
-        <v>569.7302</v>
+        <v>425.5123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3846</v>
+        <v>0.0518</v>
       </c>
       <c r="B22" s="0">
-        <v>578.0475</v>
+        <v>377.8865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4042</v>
+        <v>0.0369</v>
       </c>
       <c r="B23" s="0">
-        <v>583.8224</v>
+        <v>357.7304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4238</v>
+        <v>0.0237</v>
       </c>
       <c r="B24" s="0">
-        <v>589.5458</v>
+        <v>337.5711</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4434</v>
+        <v>0.0158</v>
       </c>
       <c r="B25" s="0">
-        <v>592.8371</v>
+        <v>321.0719</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.463</v>
+        <v>0.007</v>
       </c>
       <c r="B26" s="0">
-        <v>599.7727</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.4826</v>
-      </c>
-      <c r="B27" s="0">
-        <v>602.715</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5022</v>
-      </c>
-      <c r="B28" s="0">
-        <v>606.4032</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5218</v>
-      </c>
-      <c r="B29" s="0">
-        <v>610.84</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5413</v>
-      </c>
-      <c r="B30" s="0">
-        <v>617.3972</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5609</v>
-      </c>
-      <c r="B31" s="0">
-        <v>620.9416</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5805</v>
-      </c>
-      <c r="B32" s="0">
-        <v>627.2351</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6001</v>
-      </c>
-      <c r="B33" s="0">
-        <v>630.4332</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6197</v>
-      </c>
-      <c r="B34" s="0">
-        <v>635.5946</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6393</v>
-      </c>
-      <c r="B35" s="0">
-        <v>643.9713</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6589</v>
-      </c>
-      <c r="B36" s="0">
-        <v>648.3575</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6785</v>
-      </c>
-      <c r="B37" s="0">
-        <v>653.6547</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6981</v>
-      </c>
-      <c r="B38" s="0">
-        <v>659.8577</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7177</v>
-      </c>
-      <c r="B39" s="0">
-        <v>662.5069</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7373</v>
-      </c>
-      <c r="B40" s="0">
-        <v>671.8214</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7569</v>
-      </c>
-      <c r="B41" s="0">
-        <v>675.9252</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7765</v>
-      </c>
-      <c r="B42" s="0">
-        <v>680.9081</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7961</v>
-      </c>
-      <c r="B43" s="0">
-        <v>691.7211</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8157</v>
-      </c>
-      <c r="B44" s="0">
-        <v>696.1164</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8353</v>
-      </c>
-      <c r="B45" s="0">
-        <v>701.5708</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8549</v>
-      </c>
-      <c r="B46" s="0">
-        <v>707.6752</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8745</v>
-      </c>
-      <c r="B47" s="0">
-        <v>714.4856</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8941</v>
-      </c>
-      <c r="B48" s="0">
-        <v>723.8933</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9137</v>
-      </c>
-      <c r="B49" s="0">
-        <v>733.9056</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9333</v>
-      </c>
-      <c r="B50" s="0">
-        <v>748.2446</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9529</v>
-      </c>
-      <c r="B51" s="0">
-        <v>762.3724</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9725</v>
-      </c>
-      <c r="B52" s="0">
-        <v>790.5528</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.989</v>
-      </c>
-      <c r="B53" s="0">
-        <v>801.1719</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>297.2348</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 112 Characteristics of Pore Structures/Data112_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 112 Characteristics of Pore Structures/Data112_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 500  0-1-0-1000 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 600  0-1-0-1000 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 700  0-1-0-1000 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 800  0-1-0-1000 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 900  0-1-0-1000 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 500  0&amp;1&amp;0&amp;1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 600  0&amp;1&amp;0&amp;1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 700  0&amp;1&amp;0&amp;1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 800  0&amp;1&amp;0&amp;1000 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 900  0&amp;1&amp;0&amp;1000 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -157,12 +157,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 500  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 500  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 500  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 500  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -471,12 +471,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 600  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 600  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 600  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 600  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -785,12 +785,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 700  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 700  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 700  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 700  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1099,12 +1099,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 800  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 800  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 800  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 800  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1413,12 +1413,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 900  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 900  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 900  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 900  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
